--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F5828-A274-49A1-8F91-CA20BA914FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D646DCFC-C27F-457B-B465-AC4EFDC35528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>They are both Python objects.  A DataFrame has a similar structure to a spreadsheet though, and we can import a spreadsheet into Colab as a DataFrame.</t>
+  </si>
+  <si>
+    <t>What is the approximate average velocity of the car?</t>
+  </si>
+  <si>
+    <t>Adjust the velocity in the code until the curve fits the data as well as possible.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +656,32 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -775,64 +806,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="B2" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D646DCFC-C27F-457B-B465-AC4EFDC35528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9A336-D9F5-4EA0-9479-6B87575C3B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>Adjust the velocity in the code until the curve fits the data as well as possible.</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>About the same</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Yep!  The census and UN curves have a higher slope than our fitted curve during this period.</t>
+  </si>
+  <si>
+    <t>Look at the slope of the 3 curves.  How is the slope related to average growth?</t>
+  </si>
+  <si>
+    <t>Is the average growth between 1970 and 2016 in the known data higher or lower than the average growth we calculated?</t>
   </si>
 </sst>
 </file>
@@ -644,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -688,10 +706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +720,52 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -733,7 +796,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9A336-D9F5-4EA0-9479-6B87575C3B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A4342-C7F1-4660-A206-05EF55C80508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>Is the average growth between 1970 and 2016 in the known data higher or lower than the average growth we calculated?</t>
+  </si>
+  <si>
+    <t>If a line of code reads 'for x in range(10,15), what are the smallest and largest values of 'x' in the loop?</t>
+  </si>
+  <si>
+    <t>Smallest: 10; Largest: 15</t>
+  </si>
+  <si>
+    <t>Smallest: 0; Largest: 15</t>
+  </si>
+  <si>
+    <t>Smallest: 10; Largest: 14</t>
+  </si>
+  <si>
+    <t>Smallest: 11; Largest: 15</t>
+  </si>
+  <si>
+    <t>Smallest: 0; Largest: 14</t>
+  </si>
+  <si>
+    <t>Yep!  The range starts at the first number, and stops one value before the second number.</t>
   </si>
 </sst>
 </file>
@@ -708,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -772,10 +793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +807,62 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -796,7 +872,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A4342-C7F1-4660-A206-05EF55C80508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9A1F7-B6CC-4500-8ACD-87BD7B1042A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1350" windowWidth="16305" windowHeight="13995" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="8490" yWindow="1605" windowWidth="16305" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
     <sheet name="1_" sheetId="7" r:id="rId2"/>
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
+    <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
     <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
@@ -43,19 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Black</t>
   </si>
@@ -69,9 +57,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -81,9 +66,6 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>What is 40.1 times 3?</t>
   </si>
   <si>
@@ -247,6 +229,33 @@
   </si>
   <si>
     <t>Yep!  The range starts at the first number, and stops one value before the second number.</t>
+  </si>
+  <si>
+    <t>Why is the peak on the plot of relative error than sharper than the peak on the absolute error plot?</t>
+  </si>
+  <si>
+    <t>It is just a matter of the different units on the y-axis</t>
+  </si>
+  <si>
+    <t>The newer data is given more weight because the index values are larger</t>
+  </si>
+  <si>
+    <t>This is mostly nonsense : )</t>
+  </si>
+  <si>
+    <t>Units won't change the shape of the plot</t>
+  </si>
+  <si>
+    <t>The lower populations in the early years mean that the relative error is smaller for a given absolute error</t>
+  </si>
+  <si>
+    <t>The lower populations in the early years mean that the relative error is larger for a given absolute error</t>
+  </si>
+  <si>
+    <t>Yep!  A 0.3 billion error is relatively larger when the average population is 3 billion than when the population is 6 billion.</t>
+  </si>
+  <si>
+    <t>Close, but not quite.</t>
   </si>
 </sst>
 </file>
@@ -621,57 +630,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -698,13 +707,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,7 +726,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -744,46 +753,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -795,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,56 +819,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -871,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,59 +892,59 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -961,13 +970,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,17 +989,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1016,68 +1025,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1104,69 +1113,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9A1F7-B6CC-4500-8ACD-87BD7B1042A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070864B7-F916-46F7-B5F7-284D13136DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8490" yWindow="1605" windowWidth="16305" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070864B7-F916-46F7-B5F7-284D13136DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41200C34-3EE6-4520-8D6A-E834C1062EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="1605" windowWidth="16305" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
+    <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Black</t>
   </si>
@@ -66,21 +66,9 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -256,6 +244,12 @@
   </si>
   <si>
     <t>Close, but not quite.</t>
+  </si>
+  <si>
+    <t>What is a good estimate for the birth rate?</t>
+  </si>
+  <si>
+    <t>You want the gray "model" line to fit the known data as closely as possible.  At this point, just "eyeball" a good approximation.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +624,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -641,46 +635,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -707,13 +701,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +720,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -764,35 +758,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -830,7 +824,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -838,7 +832,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -846,18 +840,18 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -865,7 +859,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -880,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -894,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -905,46 +899,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +948,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,38 +962,28 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>120.3</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1036,18 +1020,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1058,7 +1042,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1075,18 +1059,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1113,69 +1097,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41200C34-3EE6-4520-8D6A-E834C1062EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2238292-A252-4526-9B2F-E0BC8B5476CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="5" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
+    <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
-  <si>
-    <t>Black</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Correct</t>
   </si>
@@ -60,42 +57,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -250,6 +217,27 @@
   </si>
   <si>
     <t>You want the gray "model" line to fit the known data as closely as possible.  At this point, just "eyeball" a good approximation.</t>
+  </si>
+  <si>
+    <t>Beta will have a large effect when 'p' is very small (close to zero)</t>
+  </si>
+  <si>
+    <t>Beta will have a large effect when 'p' is very large</t>
+  </si>
+  <si>
+    <t>Beta will have a large effect when 'p' is negative</t>
+  </si>
+  <si>
+    <t>Look at the quadratic equation, and consider the effects of the parameter 'beta'.  When will 'beta' have the largest effect on the behavior of this population model?</t>
+  </si>
+  <si>
+    <t>This is good thinking: if 'p' were negative, the second term would be positive, and this would change the behavior of the model significantly.  But remember that 'p' is population: it will never be negative.</t>
+  </si>
+  <si>
+    <t>Not quite: if 'p' is very small, then 'p squared' is *really* small, and so this term will be close to zero.</t>
+  </si>
+  <si>
+    <t>Yep!  If 'p' is big, then 'p squared' is very big, and the second term will be much larger, so the model will be controlled by beta.</t>
   </si>
 </sst>
 </file>
@@ -610,7 +598,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,57 +612,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +689,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +708,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -747,46 +735,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -813,56 +801,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -888,57 +876,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -964,13 +952,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,7 +971,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +981,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,70 +995,48 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1097,69 +1063,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2238292-A252-4526-9B2F-E0BC8B5476CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271AB58-191C-4033-B335-90B7CB52ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="7" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="7" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Correct</t>
   </si>
@@ -63,57 +63,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>State answer</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
     <t>What is the key difference between a DataFrame and a Series?</t>
   </si>
   <si>
@@ -238,6 +187,33 @@
   </si>
   <si>
     <t>Yep!  If 'p' is big, then 'p squared' is very big, and the second term will be much larger, so the model will be controlled by beta.</t>
+  </si>
+  <si>
+    <t>beta' will matter more as 'p' gets larger.   Assuming that 'alpha' is positive, if 'beta' was positive, this would mean growth would get even faster as 'p' grew.  But what will happen if  'beta' is negative? (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>As 'p' is very large, the 'beta' term will be larger than the 'alpha' term, and will be negative, and so the population will shrink.</t>
+  </si>
+  <si>
+    <t>If 'p' is very large, the 'beta' term will be large and negative, and the population will return to zero.</t>
+  </si>
+  <si>
+    <t>If 'p' is very large, the 'beta' term will be large and negative, and the population will eventually be negative.</t>
+  </si>
+  <si>
+    <t>If 'p' starts relatively small, the population will grow until the positive 'alpha' term balances the negative 'beta' term, and growth will stop.</t>
+  </si>
+  <si>
+    <t>Yep!  A large negative 'beta' term would mean that the growth ('Delta p') would be negative.</t>
+  </si>
+  <si>
+    <t>The population can shrink when the 'beta' term is large, but as it shrinks, the 'beta' term will become smaller too.  Since the 'alpha' term will stay positive, the population will never reach zero.</t>
+  </si>
+  <si>
+    <t>The population can shrink when the 'beta' term is large, but as it shrinks, the 'beta' term will become smaller too.  Since the 'alpha' term will stay positive, the population will never become negative.</t>
+  </si>
+  <si>
+    <t>Yep!  Early on, the 'alpha' term would be bigger, and the population would grow.  But as it did, the 'beta' term would grow quickly, until eventually the two terms were equal.</t>
   </si>
 </sst>
 </file>
@@ -273,13 +249,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -623,46 +605,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -708,7 +690,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +717,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -746,35 +728,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +783,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -812,7 +794,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -820,7 +802,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -828,18 +810,18 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -847,7 +829,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -876,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -887,46 +869,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -971,7 +953,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -983,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +979,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1008,35 +990,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1048,85 +1030,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271AB58-191C-4033-B335-90B7CB52ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF591066-4C48-4041-801D-2A4621BBB454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="7" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7" sheetId="5" r:id="rId8"/>
+    <sheet name="8_" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Correct</t>
   </si>
@@ -63,6 +64,21 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Correct order of definitions</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>What is the key difference between a DataFrame and a Series?</t>
   </si>
   <si>
@@ -214,6 +230,48 @@
   </si>
   <si>
     <t>Yep!  Early on, the 'alpha' term would be bigger, and the population would grow.  But as it did, the 'beta' term would grow quickly, until eventually the two terms were equal.</t>
+  </si>
+  <si>
+    <t>Area of the Plot</t>
+  </si>
+  <si>
+    <t>Population: 0-3 billion</t>
+  </si>
+  <si>
+    <t>Population: 3-7 billion</t>
+  </si>
+  <si>
+    <t>Population 7-10 billion</t>
+  </si>
+  <si>
+    <t>Population: 12-14 billion</t>
+  </si>
+  <si>
+    <t>Population: Above 14 billion</t>
+  </si>
+  <si>
+    <t>This section is dominated by the alpha term (growth is small but always positive)</t>
+  </si>
+  <si>
+    <t>In this section, the alpha and beta terms are about the same size (growth is very small and sometimes negative)</t>
+  </si>
+  <si>
+    <t>In this section, the alpha term is significantly bigger than the beta term (growth is large)</t>
+  </si>
+  <si>
+    <t>In this section, the beta term is bigger than the alpha term (growth is negative)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the downward trend of the curve: the population growth here (as shown on the y-axis) is still positive and large</t>
+  </si>
+  <si>
+    <t>If the population is quite large, then it will actually decline</t>
+  </si>
+  <si>
+    <t>A population in this area is nearing equilibrium: no positive or negative growth.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -605,46 +663,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -690,7 +748,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -728,35 +786,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +841,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -794,7 +852,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -802,7 +860,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -810,18 +868,18 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -829,7 +887,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -858,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -869,46 +927,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -953,7 +1011,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -990,35 +1048,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1103,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1056,52 +1114,149 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A2C0F8-AEEF-4657-B798-3441DD741DFA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF591066-4C48-4041-801D-2A4621BBB454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DF14D-31D3-46E0-A4F6-7DCA5354AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="2010" windowWidth="16305" windowHeight="13995" activeTab="8" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="11070" yWindow="915" windowWidth="16305" windowHeight="13995" activeTab="9" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7" sheetId="5" r:id="rId8"/>
     <sheet name="8_" sheetId="10" r:id="rId9"/>
+    <sheet name="9_" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Correct</t>
   </si>
@@ -76,6 +77,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -272,6 +276,45 @@
   </si>
   <si>
     <t>A population in this area is nearing equilibrium: no positive or negative growth.</t>
+  </si>
+  <si>
+    <t>p' is much smaller than 'K'</t>
+  </si>
+  <si>
+    <t>Look at the reparameterized equation, and match the condition below with the behavior of the model.  What happens when:</t>
+  </si>
+  <si>
+    <t>p' is much larger than K</t>
+  </si>
+  <si>
+    <t>r' is very large</t>
+  </si>
+  <si>
+    <t>p' is close to the value of 'K'</t>
+  </si>
+  <si>
+    <t>r' is very small</t>
+  </si>
+  <si>
+    <t>Delta p will be large and negative: the population will shrink</t>
+  </si>
+  <si>
+    <t>Delta p will tend to be large and positive, which will cause the population to grow quickly</t>
+  </si>
+  <si>
+    <t>Delta p will be positive but the rate of growth will depend on other variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The rate of growth will depend on 'r'</t>
+  </si>
+  <si>
+    <t>Delta p will tend to be large; its sign will cause the population to move quickly to equilibrium</t>
+  </si>
+  <si>
+    <t>Delta p will be small not matter what the other variables are</t>
   </si>
 </sst>
 </file>
@@ -652,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -663,47 +706,144 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115ED41A-1FCE-4430-895A-3AE881663CEA}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,7 +869,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -748,7 +888,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +915,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -786,35 +926,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -852,7 +992,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -860,7 +1000,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -868,18 +1008,18 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -887,7 +1027,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -916,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -927,46 +1067,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +1132,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1011,7 +1151,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1177,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1048,35 +1188,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1114,46 +1254,46 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A2C0F8-AEEF-4657-B798-3441DD741DFA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1196,63 +1336,63 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_world_pop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DF14D-31D3-46E0-A4F6-7DCA5354AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63419B-FCFD-4BEA-BD5D-EE1702B2AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="915" windowWidth="16305" windowHeight="13995" activeTab="9" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="11070" yWindow="915" windowWidth="16305" windowHeight="13995" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="7" sheetId="5" r:id="rId8"/>
     <sheet name="8_" sheetId="10" r:id="rId9"/>
     <sheet name="9_" sheetId="11" r:id="rId10"/>
+    <sheet name="10_" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Correct</t>
   </si>
@@ -315,6 +316,12 @@
   </si>
   <si>
     <t>Delta p will be small not matter what the other variables are</t>
+  </si>
+  <si>
+    <t>What appears to be carry capacity for world population, based on the US and UN data?  Adjust our parameters to better match their data to find an answer.</t>
+  </si>
+  <si>
+    <t>Adjust 'r' and 'K' to match the official data.  Which represents the carrying capacity?</t>
   </si>
 </sst>
 </file>
@@ -757,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115ED41A-1FCE-4430-895A-3AE881663CEA}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -850,12 +857,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8704E8A-7745-4E53-A2DF-FF5FB15F2149}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
